--- a/DDL.xlsx
+++ b/DDL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C# Training\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C529897-6977-4B2D-9EBB-22BA7A081AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3099EA-7A4E-4FA8-82DC-6241E52C1B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables for the project" sheetId="12" r:id="rId1"/>
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E15045E-5C25-48D1-9471-98A2E828D8C0}">
-  <dimension ref="X1:Y28"/>
+  <dimension ref="X1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -755,7 +755,7 @@
     <row r="6" spans="24:25">
       <c r="X6" s="3"/>
       <c r="Y6" s="4" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="24:25">
@@ -785,9 +785,7 @@
       </c>
     </row>
     <row r="14" spans="24:25">
-      <c r="Y14" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="24:25">
       <c r="Y15" s="4" t="s">
@@ -796,28 +794,33 @@
     </row>
     <row r="16" spans="24:25">
       <c r="Y16" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="24:25">
+      <c r="Y17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="24:24">
-      <c r="X17" s="3" t="s">
+    <row r="18" spans="24:25">
+      <c r="X18" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="24:24">
-      <c r="X20" s="3"/>
-    </row>
-    <row r="22" spans="24:24">
-      <c r="X22" s="3"/>
-    </row>
-    <row r="24" spans="24:24">
-      <c r="X24" s="3"/>
-    </row>
-    <row r="26" spans="24:24">
-      <c r="X26" s="3"/>
-    </row>
-    <row r="28" spans="24:24">
-      <c r="X28" s="3"/>
+    <row r="21" spans="24:25">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="23" spans="24:25">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="25" spans="24:25">
+      <c r="X25" s="3"/>
+    </row>
+    <row r="27" spans="24:25">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="29" spans="24:25">
+      <c r="X29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1272,7 +1275,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1527,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2014,10 +2017,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>

--- a/DDL.xlsx
+++ b/DDL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C# Training\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3099EA-7A4E-4FA8-82DC-6241E52C1B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA9B45-6189-426B-9D23-C2F6C5B82F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables for the project" sheetId="12" r:id="rId1"/>
@@ -718,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E15045E-5C25-48D1-9471-98A2E828D8C0}">
   <dimension ref="X1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="S6" workbookViewId="0">
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
@@ -1814,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -2458,9 +2458,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
